--- a/biology/Zoologie/Friedrich_Dahl/Friedrich_Dahl.xlsx
+++ b/biology/Zoologie/Friedrich_Dahl/Friedrich_Dahl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Friedrich Theodor Dahl est un zoologiste allemand né le 24 juin 1856 à Rosenhofer Brök dans le duché de Holstein et mort le 29 juin 1929 à Greifswald.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille d’agriculteurs, Friedrich Dahl fait ses études dans les universités de Leipzig, de Fribourg, de Berlin et de Kiel. Il devient, en 1887, Privatdozent et fait deux voyages dans la Baltique et dans l’Archipel Bismarck.
 Il a étudié tous les groupes zoologiques avec une prédilection pour les araignées. Il s’intéresse particulièrement à la biogéographie. Le 19 juin 1899, il épouse Maria Grosset (1872-1972) qui travaille à l’Institut de zoologie de Kiel et qui a également fait paraître plusieurs travaux sur les araignées. On doit à Friedrich Dahl l’invention du mot biotope.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dahl, 1883 : Analytische Bearbeitung der Spinnen Norddeutschlands mit einer anatomisch-biologischen Einleitung. Schriften des Naturwissenschaftlichen Vereins für Schleswig-Holstein, vol. 5, p. 13-88.
 Dahl, 1886 : Monographie der Erigone-Arten im Thorell' schen. Sinne, nebst anderen Beiträgen zur Spinnenfauna SchleswigHolsteins. Schriften des Naturwissenschaftlichen Vereins für Schleswig-Holstein, vol. 6, p. 65-102.
@@ -592,7 +608,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre Bonnet (1945). Bibliographia araneorum, Les frères Doularoude (Toulouse)</t>
         </is>
